--- a/ExcelTool_GeneratorInput_Template.xlsx
+++ b/ExcelTool_GeneratorInput_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SarahSchmidt\Documents\sourcetree\MoEWe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B859AB1-0BB9-46E6-B034-4503BE82C55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF74D2DF-D0AC-4091-8309-CE858CF467E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserGuide" sheetId="4" r:id="rId1"/>
@@ -1009,7 +1009,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="439">
   <si>
     <t>input</t>
   </si>
@@ -2591,6 +2591,12 @@
 Figure 4: Contribution Analysis - Activities
 Figure 5: Scenario Analysis - Foreground system scenarios
 Figure 6: Scenario Analysis - Background system scenarios</t>
+  </si>
+  <si>
+    <t>Database version</t>
+  </si>
+  <si>
+    <t>3.7.1</t>
   </si>
 </sst>
 </file>
@@ -5050,7 +5056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A3D566-44A5-479B-A2A9-A44ABD46E4C9}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -5654,10 +5660,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD7C88C-20AB-446E-9AA2-8B598F1EB83E}">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5803,7 +5809,7 @@
         <v>419</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.4">
@@ -5825,6 +5831,14 @@
       </c>
       <c r="B27" s="4" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelTool_GeneratorInput_Template.xlsx
+++ b/ExcelTool_GeneratorInput_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SarahSchmidt\Documents\sourcetree\MoEWe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF74D2DF-D0AC-4091-8309-CE858CF467E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0366464-396E-4727-8EB2-EDB1AEDD7388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserGuide" sheetId="4" r:id="rId1"/>
@@ -1009,7 +1009,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="441">
   <si>
     <t>input</t>
   </si>
@@ -2597,6 +2597,12 @@
   </si>
   <si>
     <t>3.7.1</t>
+  </si>
+  <si>
+    <t>LCIA implementation file path</t>
+  </si>
+  <si>
+    <t>C:\Users\SarahSchmidt\Desktop\Databases\ecoinvent\LCIA Implementation v3.8.xlsx</t>
   </si>
 </sst>
 </file>
@@ -5660,10 +5666,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD7C88C-20AB-446E-9AA2-8B598F1EB83E}">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5839,6 +5845,14 @@
       </c>
       <c r="B28" s="4" t="s">
         <v>438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -9997,7 +10011,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -10012,7 +10026,7 @@
     <col min="8" max="16384" width="9.08984375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>85</v>
       </c>

--- a/ExcelTool_GeneratorInput_Template.xlsx
+++ b/ExcelTool_GeneratorInput_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SarahSchmidt\Documents\sourcetree\MoEWe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0366464-396E-4727-8EB2-EDB1AEDD7388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE25CEB-F88E-408D-AB4E-74A2D304A4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ExcelTool_GeneratorInput_Template.xlsx
+++ b/ExcelTool_GeneratorInput_Template.xlsx
@@ -8,28 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SarahSchmidt\Documents\sourcetree\MoEWe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE25CEB-F88E-408D-AB4E-74A2D304A4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9ECA83E-6B71-4C8F-BA3F-7746B86534F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserGuide" sheetId="4" r:id="rId1"/>
-    <sheet name="Glossary" sheetId="11" r:id="rId2"/>
-    <sheet name="GeneralInformation" sheetId="3" r:id="rId3"/>
-    <sheet name="Activities" sheetId="2" r:id="rId4"/>
-    <sheet name="Exchanges" sheetId="1" r:id="rId5"/>
-    <sheet name="EnvironmentalValue" sheetId="6" r:id="rId6"/>
-    <sheet name="ProspectiveScenarios" sheetId="5" r:id="rId7"/>
-    <sheet name="BackgroundScenarios" sheetId="7" r:id="rId8"/>
-    <sheet name="LCIA_Methods" sheetId="8" r:id="rId9"/>
-    <sheet name="Weighting" sheetId="9" r:id="rId10"/>
-    <sheet name="Format" sheetId="10" r:id="rId11"/>
-    <sheet name="UserGuide_EWU-Calc" sheetId="12" r:id="rId12"/>
+    <sheet name="UserGuide_EWU-Dashboard" sheetId="12" r:id="rId2"/>
+    <sheet name="Glossary" sheetId="11" r:id="rId3"/>
+    <sheet name="GeneralInformation" sheetId="3" r:id="rId4"/>
+    <sheet name="Activities" sheetId="2" r:id="rId5"/>
+    <sheet name="Exchanges" sheetId="1" r:id="rId6"/>
+    <sheet name="Parameters" sheetId="13" r:id="rId7"/>
+    <sheet name="EnvironmentalValue" sheetId="6" r:id="rId8"/>
+    <sheet name="ProspectiveScenarios" sheetId="5" r:id="rId9"/>
+    <sheet name="BackgroundScenarios" sheetId="7" r:id="rId10"/>
+    <sheet name="LCIA_Methods" sheetId="8" r:id="rId11"/>
+    <sheet name="Weighting" sheetId="9" r:id="rId12"/>
+    <sheet name="Format" sheetId="10" r:id="rId13"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId13"/>
-  </externalReferences>
-  <calcPr calcId="191029" iterate="1" iterateCount="1000" iterateDelta="9.9999999999999995E-7"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -89,7 +87,7 @@
     <author>Sarah Schmidt</author>
   </authors>
   <commentList>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{FB831580-A40C-4311-AD71-3B7FCA7C6DAC}">
+    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{FB831580-A40C-4311-AD71-3B7FCA7C6DAC}">
       <text>
         <r>
           <rPr>
@@ -109,11 +107,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-The EWU Calculator allows to adapt the amounts of foregroundsystem exchanges. Next to the default system, scenarios can be generated to compare the environmental performance of different waste management system configurations.</t>
+The EWU Dashboard allows to adapt the exchange amounts of parameterized foregroundsystem exchanges. Next to the default system, scenarios can be generated to compare the environmental performance of different configurations of the waste management system under study.</t>
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{F778F5E5-5E94-4333-98E0-803BF301BC9F}">
+    <comment ref="A29" authorId="0" shapeId="0" xr:uid="{F778F5E5-5E94-4333-98E0-803BF301BC9F}">
       <text>
         <r>
           <rPr>
@@ -133,32 +131,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Sensitivity ratios, the results of the perturbation analysis, may be useful for identifying relvant foreground system scenarios. Depending on the number of databases and parameters to be considered, the calculation might take a few hours.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{22292907-4641-4A54-9CE3-2D28B47BCD6A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sarah Schmidt:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-ecoinvent version and compatibility with premise
-bw2io version</t>
+Sensitivity ratios, the results of the perturbation analysis, may be useful for identifying relvant foreground system scenarios. Depending on the number of parameters to be considered, the calculation might take a few hours.</t>
         </r>
       </text>
     </comment>
@@ -539,6 +512,30 @@
           </rPr>
           <t xml:space="preserve">
 Exchange type.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{5BFC94CE-7164-4FB8-82E2-2E078CF9E922}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sarah Schmidt:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column needs to be filled, if "predefined paramaters" shall be used. Parameter names used in the formulas have to match with the parameter names defined in the "Parameters"-sheet.</t>
         </r>
       </text>
     </comment>
@@ -1009,7 +1006,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="461">
   <si>
     <t>input</t>
   </si>
@@ -1661,12 +1658,6 @@
   </si>
   <si>
     <t>Input</t>
-  </si>
-  <si>
-    <t>EWU Calculator - Input Data Template</t>
-  </si>
-  <si>
-    <t>Schmidt, S.; Laner, D. (submitted): Environmental Waste Utilization: Monitoring the Environmental Performance of Waste Management Systems</t>
   </si>
   <si>
     <r>
@@ -1702,9 +1693,6 @@
     <t>Background scenarios can be defined as an alternative or an add on to prospective scenarios based on IAMs.</t>
   </si>
   <si>
-    <t>General information is gathered, which is needed to create the EWU Calculator. This includes attributes describing the system under study (e.g., geographical and temporal scope) as well as information on scenarios that shall be generated and databases to be used.</t>
-  </si>
-  <si>
     <t>Term</t>
   </si>
   <si>
@@ -1735,18 +1723,9 @@
     <t>Production Exchange</t>
   </si>
   <si>
-    <t>EWU Calculator</t>
-  </si>
-  <si>
-    <t>Specified by name, unit, and location.</t>
-  </si>
-  <si>
     <t>Excel Tool for monitoring the environmental waste utilization of waste management systems.</t>
   </si>
   <si>
-    <t>Environmental Impact that has been spent to produce the materials which are disposed of.</t>
-  </si>
-  <si>
     <t>Perturbation Analysis</t>
   </si>
   <si>
@@ -1774,9 +1753,6 @@
     <t xml:space="preserve">As a basis for creating prospective scenarios, a combination of IAMs, SSPs, and years under study is selected. To create prospective scenarios, the Python package "premise" is applied (cf. Sacchi et al. 2022, https://github.com/polca/premise). An encryption key has to be requested and entered in cell B2 to unlock the predefined IAM scenarios. </t>
   </si>
   <si>
-    <t>A central objective of waste management is to reduce impacts associated with waste generation and treatment to protect the environment and human health. As part of the Environmental Waste Utilization (EWU Calculator) Environmental Waste Utilization scores are calculated to assess the capability of waste management systems to reduce the adverse impacts of waste generation and waste management. Environmental Waste Utilization quantifies the share of the environmental value of disposed materials which is utilized through waste management. The EWU Calculator enables to explore Environmental Waste Utilization scores for various waste management systems under changing boundary conditions and increases the transparency of indicator calculations. Monitoring the Environmental Waste Utilization of waste management systems allows to identify environmentally preferable waste management concepts and enables sound decision support.</t>
-  </si>
-  <si>
     <t>LCIA Method</t>
   </si>
   <si>
@@ -1810,24 +1786,12 @@
     <t xml:space="preserve">Exchanges link activities and are defined by a source (input) and a target (activity). </t>
   </si>
   <si>
-    <t>Perturbation analysis is a sensitivity analysis method. Each parameter is increased by an incremental amount one-at-a-time (OAT) while all other parameters fixed at their original value (cf. Heijungs and Kleijn 2001, Clavreul et al. 2012, Bisinella et al. 2016).</t>
-  </si>
-  <si>
-    <t>The sensitivity ratio is an indicator which can be calculated based on the results of a perturbation analysis. It is defined as the ratio of relative changes of impacts to the relative change of a parameter value. Sensitivity ratios are used to determine parameters which should be known more precisely as their uncertainty might have a high effect on the uncertainty of the systems environmental performance or to identify parameter changes that might have significant effects on the environmental performance and are therefore from special interest for improving the environmental performance of the waste management system.</t>
-  </si>
-  <si>
-    <t>"premise" (PRospective EnvironMental Impact asSEssment, cf. Sacchi et al. 2022) is a python package that allows to adapt inventory data of the ecoinvent 3 cutoff database to the output results of Integrated Assessment Models (IAM) in order to generate databases under prospective scenarios for any year between 2005 and 2100 (cf. https://premise.readthedocs.io).</t>
-  </si>
-  <si>
     <t>Shared Socioeconomic Pathways are scenarios of projected socioeconomic global changes related to different climate policies. SSP2 ("Middle of the road") describes a scenario in which social, economic, and technological trends follow historical patterns.</t>
   </si>
   <si>
     <t>Representative Concentration Pathway (RCP)</t>
   </si>
   <si>
-    <t>Representative Concentration Pathway (RCP) describe greenhouse gas concentration trajectories.</t>
-  </si>
-  <si>
     <t>Unit of normalized LCA results. A person equivalent quantifies the environmental impact caused annually by the activities of an average person.</t>
   </si>
   <si>
@@ -1837,12 +1801,6 @@
     <t>A set of characterization factors that is assigned to elementary flows (biosphere exchanges).</t>
   </si>
   <si>
-    <t>Reference exchange of an activity. The input activity of the production exchange is the same as its target activity. The production amount is 1 or -1 (-1 for waste treatment actvities, cf. "opposite direction approach").</t>
-  </si>
-  <si>
-    <t>Activities represent processes of any type, such as transformation processes or market processes.</t>
-  </si>
-  <si>
     <t>Integrated assessment modelling links main features of society and economy with the biosphere and atmosphere into one modelling framework. In the context of climate change, the goal of integrated assessment modelling is to enable informed policy-making.</t>
   </si>
   <si>
@@ -1867,13 +1825,7 @@
     <t>FigureX_Data</t>
   </si>
   <si>
-    <t>Data behind the figures displayed on the EWUS_Monitor-sheet.</t>
-  </si>
-  <si>
     <t>Documentation</t>
-  </si>
-  <si>
-    <t>Documentation of data sources and Python package versions used for generating the EWU Monitor.</t>
   </si>
   <si>
     <r>
@@ -2176,18 +2128,9 @@
     <t>Values are given in the reference unit of the respective activity.</t>
   </si>
   <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
     <t>UserGuide_EWU-Calc</t>
   </si>
   <si>
-    <t>User guide which will be copied to the EWU Calculator.</t>
-  </si>
-  <si>
-    <t>EWUS_bioexample</t>
-  </si>
-  <si>
     <t>Sarah Schmidt &amp; David Laner</t>
   </si>
   <si>
@@ -2542,9 +2485,6 @@
     <t>Pathway tag</t>
   </si>
   <si>
-    <t xml:space="preserve">Activities are listed. Indicated which activity is the reference activity of the system. Pathway tags and activity tags are assigned that will be used during the contribution analysis.  </t>
-  </si>
-  <si>
     <t>The color scheme that will be used for illustrating the results is defined. Colors are assigned to Pathways and activities.</t>
   </si>
   <si>
@@ -2566,9 +2506,6 @@
     <t>PW2_bananas</t>
   </si>
   <si>
-    <t>CA_PWs_Database_Scenario</t>
-  </si>
-  <si>
     <t>OEV_PWs_Database_Scenario</t>
   </si>
   <si>
@@ -2582,6 +2519,93 @@
   </si>
   <si>
     <t>Original environmental value per pathway. Values are given in person equivalents.</t>
+  </si>
+  <si>
+    <t>Database version</t>
+  </si>
+  <si>
+    <t>3.7.1</t>
+  </si>
+  <si>
+    <t>LCIA implementation file path</t>
+  </si>
+  <si>
+    <t>C:\Users\SarahSchmidt\Desktop\Databases\ecoinvent\LCIA Implementation v3.8.xlsx</t>
+  </si>
+  <si>
+    <t>Environmental impact associated with the production of materials which are disposed of.</t>
+  </si>
+  <si>
+    <t>EWU Dashboard</t>
+  </si>
+  <si>
+    <t>Perturbation analysis is a sensitivity analysis method. Each parameter is increased by an incremental amount one-at-a-time (OAT) while all other parameters are fixed at their original value (cf. Heijungs and Kleijn 2001, Clavreul et al. 2012, Bisinella et al. 2016).</t>
+  </si>
+  <si>
+    <t>"premise" (PRospective EnvironMental Impact asSEssment, cf. Sacchi et al. 2022) is a Python package that allows to adapt inventory data of the ecoinvent 3 cutoff database to the output results of Integrated Assessment Models (IAM) in order to generate databases under prospective scenarios for any year between 2005 and 2100 (cf. https://premise.readthedocs.io).</t>
+  </si>
+  <si>
+    <t>Activities represent processes of any type, such as transformation processes or market processes. Specified by name, unit, and location.</t>
+  </si>
+  <si>
+    <t>Link between two technosphere activities. Specified by a source and a target.</t>
+  </si>
+  <si>
+    <t>EWU_Biowaste</t>
+  </si>
+  <si>
+    <t>General information is gathered, which is needed to create the EWU Dashboard. This includes attributes describing the system under study (e.g., geographical and temporal scope) as well as information on scenarios that shall be generated and databases to be used.</t>
+  </si>
+  <si>
+    <t>User guide which will be copied to the EWU Dashboard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activities are listed.Pathway tags and activity tags are assigned that will be used during the contribution analysis. The reference activity of the waste management system is selected. </t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Type of parameterization</t>
+  </si>
+  <si>
+    <t>predefined parameters</t>
+  </si>
+  <si>
+    <t>automatically generated parameters</t>
+  </si>
+  <si>
+    <t>Representative Concentration Pathways (RCP) describe greenhouse gas concentration trajectories.</t>
+  </si>
+  <si>
+    <t>If a user wants to work with predefined parameters (e.g. to reduce the number of parameters in models with a large number of exchanges), parameters have to be defined in the "Parameters"-sheet.</t>
+  </si>
+  <si>
+    <t>Reference exchange of an activity. The input activity of the production exchange is the same as its target activity. The production amount is 1 or -1 (-1 for waste treatment actvities, "opposite direction approach").</t>
+  </si>
+  <si>
+    <t>The sensitivity ratio is an indicator which can be calculated based on the results of a perturbation analysis. It is defined as the ratio of relative changes of impacts to the relative change of a parameter value. Sensitivity ratios are used to determine parameters which should be known more precisely (as their uncertainty might have a high effect on the uncertainty of the systems environmental performance) or to identify parameter changes that might have significant effects on the environmental performance and are therefore from special interest for improving the environmental performance of the waste management system (cf. Calvreul et al. 2012).</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Parameter Description</t>
+  </si>
+  <si>
+    <t>Parameter-ID</t>
+  </si>
+  <si>
+    <t>Default Amount</t>
+  </si>
+  <si>
+    <t>A central objective of waste management is to reduce impacts associated with waste generation and treatment to protect human health and the environment. As part of the Environmental Waste Utilization Dashboard (EWU Dashboard) Environmental Waste Utilization scores are calculated to assess the capability of waste management systems to reduce the adverse impacts of waste generation and waste management. Environmental Waste Utilization quantifies the share of the environmental value of disposed materials which is utilized through waste management. The EWU Dashboard enables to explore Environmental Waste Utilization scores for various waste management systems under changing boundary conditions and increases the transparency of indicator calculations. Monitoring the Environmental Waste Utilization of waste management systems allows to identify environmentally preferable waste management concepts and enables sound decision support.</t>
+  </si>
+  <si>
+    <t>Schmidt, S.; Laner, D. (submitted): Environmental Waste Utilization score to monitor the Environmental Performance of Waste Management Systems</t>
+  </si>
+  <si>
+    <t>EWU Dashboard - Input Data Template</t>
   </si>
   <si>
     <t>Monitor the environmental performance of the waste management system under study. Select a pathway / waste management system, scenario, database, and weighting method to display the respective results.
@@ -2590,19 +2614,191 @@
 Figure 3: Contribution Analysis - Pathways
 Figure 4: Contribution Analysis - Activities
 Figure 5: Scenario Analysis - Foreground system scenarios
-Figure 6: Scenario Analysis - Background system scenarios</t>
-  </si>
-  <si>
-    <t>Database version</t>
-  </si>
-  <si>
-    <t>3.7.1</t>
-  </si>
-  <si>
-    <t>LCIA implementation file path</t>
-  </si>
-  <si>
-    <t>C:\Users\SarahSchmidt\Desktop\Databases\ecoinvent\LCIA Implementation v3.8.xlsx</t>
+Figure 6: Scenario Analysis - Background system scenarios
+Figure 7: EWU-Components (Impacts of waste treatment and waste utilization; environmental value of discarded materials)</t>
+  </si>
+  <si>
+    <t>Data behind the figures displayed on the EWU_Dashboard-sheet.</t>
+  </si>
+  <si>
+    <t>Documentation of data sources and Python package versions used for generating the EWU Dashboard.</t>
+  </si>
+  <si>
+    <t>CA_Pathways_Database_Scenario</t>
+  </si>
+  <si>
+    <r>
+      <t>TUM_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Database_Scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Treatm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TUM_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Database_Scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Util</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TUM_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Database_Scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Mat</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>WTUM_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Database_Scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Treatm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>WTUM_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Database_Scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Util</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>WTUM_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Database_Scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Mat</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">EWU-Component "Environmental impact of waste treatment" calculated per impact category. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EWU-Component "Environmental impact of waste utilization" calculated per impact category. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EWU-Component "Environmental value of discarded materials" calculated per impact category. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EWU-Component "Environmental impact of waste treatment" calculated per weighting method. </t>
+  </si>
+  <si>
+    <t>EWU-Component "Environmental impact of waste utilization" calculated per weighting method.</t>
+  </si>
+  <si>
+    <t>EWU-Component "Environmental value of discarded materials" calculated per weighting method.</t>
   </si>
 </sst>
 </file>
@@ -2612,7 +2808,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2771,18 +2967,6 @@
       <i/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3019,7 +3203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3204,19 +3388,7 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3228,6 +3400,16 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -3251,43 +3433,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="UserManual"/>
-      <sheetName val="GeneralInformation"/>
-      <sheetName val="EnvironmentalValue"/>
-      <sheetName val="Activities"/>
-      <sheetName val="Exchanges"/>
-      <sheetName val="LCIA_Methods"/>
-      <sheetName val="ProspectiveScenarios"/>
-      <sheetName val="BackgroundScenario"/>
-      <sheetName val="Weighting"/>
-      <sheetName val="Format"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>BWM</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3553,146 +3698,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7317A1B1-C304-451A-A8D3-36941F1A00C5}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.90625" style="31" customWidth="1"/>
     <col min="2" max="2" width="117.6328125" style="31" customWidth="1"/>
-    <col min="3" max="4" width="10.90625" style="31"/>
-    <col min="5" max="6" width="10.90625" style="86"/>
-    <col min="7" max="11" width="10.90625" style="87"/>
-    <col min="12" max="19" width="10.90625" style="86"/>
+    <col min="3" max="3" width="10.90625" style="31"/>
+    <col min="4" max="6" width="10.90625" style="93"/>
+    <col min="7" max="11" width="10.90625" style="43"/>
+    <col min="12" max="19" width="10.90625" style="93"/>
     <col min="20" max="16384" width="10.90625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" ht="23" x14ac:dyDescent="0.5">
       <c r="A1" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="87" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="22.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:2" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A2" s="36" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="87" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4" s="87"/>
+    </row>
+    <row r="6" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="G2" s="87" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="87" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H3" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="87" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="87" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="93" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="93"/>
-      <c r="J4" s="87" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J5" s="87" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="31" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
         <v>205</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="43" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>181</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
         <v>183</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="40" t="s">
         <v>184</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
         <v>182</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
         <v>185</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3700,39 +3802,47 @@
         <v>186</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="40" t="s">
-        <v>221</v>
+        <v>430</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+      <c r="A20" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="B19" s="41" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="40" t="s">
-        <v>188</v>
-      </c>
       <c r="B20" s="41" t="s">
-        <v>423</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
-        <v>301</v>
+        <v>188</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>302</v>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -3745,6 +3855,505 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAF2BD3-5591-4AE6-8093-FE01ED0DECED}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="2" max="2" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.08984375" customWidth="1"/>
+    <col min="4" max="4" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C3" s="34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CD46A7-14E7-4C5F-99A9-AF867853C532}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.453125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.7265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.6328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.453125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.08984375" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A2" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="91">
+        <v>8400</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A3" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="91">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A4" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="91">
+        <v>3.8500000000000001E-5</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A5" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="91">
+        <v>4.75E-4</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A6" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="91">
+        <v>7.18E-4</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A7" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="91">
+        <v>4220</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A8" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="90" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="91">
+        <v>40.6</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A9" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="91">
+        <v>55.5</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A10" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="91">
+        <v>177</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A11" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="91">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A12" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="91">
+        <v>28.3</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A13" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="90" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="91">
+        <v>11800</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A14" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="91">
+        <v>1400000</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="24" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+      <c r="A15" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="91">
+        <v>11500</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A16" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="91">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A17" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="91">
+        <v>65300</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5968291D-018D-489B-8F0A-6761B796FEB6}">
   <dimension ref="A1:V17"/>
   <sheetViews>
@@ -4934,7 +5543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92027760-1C1C-4070-88E3-E13F245C46DA}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -4954,18 +5563,17 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="str">
-        <f>[1]GeneralInformation!B6</f>
-        <v>BWM</v>
+      <c r="A2" s="18" t="s">
+        <v>287</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="B3" s="75" t="s">
         <v>177</v>
@@ -4973,47 +5581,47 @@
     </row>
     <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="B5" s="77" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="B8" s="80" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="B9" s="81" t="s">
         <v>178</v>
@@ -5021,7 +5629,7 @@
     </row>
     <row r="10" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="B10" s="82" t="s">
         <v>179</v>
@@ -5029,15 +5637,15 @@
     </row>
     <row r="11" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="B12" s="84" t="s">
         <v>180</v>
@@ -5058,17 +5666,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A3D566-44A5-479B-A2A9-A44ABD46E4C9}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.26953125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="35.90625" style="31" customWidth="1"/>
     <col min="2" max="2" width="117.6328125" style="31" customWidth="1"/>
     <col min="3" max="6" width="10.90625" style="31"/>
     <col min="7" max="11" width="10.90625" style="43"/>
@@ -5101,7 +5709,7 @@
     </row>
     <row r="2" spans="1:11" s="35" customFormat="1" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A2" s="36" t="s">
-        <v>234</v>
+        <v>421</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -5142,10 +5750,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" s="35" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="93" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="93"/>
+      <c r="A4" s="87" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4" s="87"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
@@ -5175,7 +5783,7 @@
     </row>
     <row r="6" spans="1:11" s="35" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
@@ -5190,7 +5798,7 @@
     </row>
     <row r="7" spans="1:11" s="35" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
-        <v>218</v>
+        <v>443</v>
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -5208,7 +5816,7 @@
         <v>205</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -5220,12 +5828,12 @@
       <c r="J10" s="43"/>
       <c r="K10" s="43"/>
     </row>
-    <row r="11" spans="1:11" s="35" customFormat="1" ht="115" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" s="35" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -5239,10 +5847,10 @@
     </row>
     <row r="12" spans="1:11" s="35" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
@@ -5256,10 +5864,10 @@
     </row>
     <row r="13" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
@@ -5283,10 +5891,10 @@
       <c r="K14" s="43"/>
     </row>
     <row r="15" spans="1:11" s="35" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="95" t="s">
-        <v>274</v>
-      </c>
-      <c r="B15" s="95"/>
+      <c r="A15" s="89" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="89"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
@@ -5313,7 +5921,7 @@
         <v>205</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
@@ -5327,42 +5935,42 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="48" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>278</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="48" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>280</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="48" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -5370,99 +5978,137 @@
         <v>187</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="48" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="48" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="48" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A29" s="48" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="48" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="48" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="31" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="48" t="s">
+        <v>451</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="48" t="s">
+        <v>453</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="48" t="s">
+        <v>454</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>460</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A4:B4"/>
@@ -5472,12 +6118,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB39666-68EF-4CBF-8251-0DC36FC941F0}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5489,26 +6135,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>269</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5516,39 +6162,39 @@
         <v>182</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>237</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
-        <v>234</v>
+        <v>421</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A8" s="46" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5556,47 +6202,47 @@
         <v>216</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="56" x14ac:dyDescent="0.3">
       <c r="A12" s="46" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A14" s="46" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>259</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="56" x14ac:dyDescent="0.3">
@@ -5604,47 +6250,47 @@
         <v>62</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>261</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A16" s="46" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="98" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="46" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>260</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A19" s="46" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="46" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>235</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="28" x14ac:dyDescent="0.3">
@@ -5652,7 +6298,7 @@
         <v>187</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -5664,12 +6310,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD7C88C-20AB-446E-9AA2-8B598F1EB83E}">
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5677,61 +6323,142 @@
     <col min="1" max="1" width="45.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="83" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.90625" style="3"/>
-    <col min="4" max="22" width="10.90625" style="23"/>
+    <col min="4" max="4" width="10.90625" style="23"/>
+    <col min="5" max="8" width="10.90625" style="44"/>
+    <col min="9" max="9" width="9.54296875" style="44" customWidth="1"/>
+    <col min="10" max="13" width="10.90625" style="44"/>
+    <col min="14" max="22" width="10.90625" style="23"/>
     <col min="23" max="16384" width="10.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="E1" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+    </row>
+    <row r="2" spans="1:13" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43" t="s">
+        <v>433</v>
+      </c>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+    </row>
+    <row r="3" spans="1:13" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+        <v>286</v>
+      </c>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+    </row>
+    <row r="4" spans="1:13" ht="14" x14ac:dyDescent="0.3">
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+    </row>
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+    </row>
+    <row r="6" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>167</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>168</v>
       </c>
@@ -5739,20 +6466,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>49</v>
       </c>
@@ -5760,7 +6487,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>39</v>
       </c>
@@ -5768,132 +6495,127 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>57</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="5">
-        <v>5</v>
+        <v>213</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>59</v>
+        <v>416</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>60</v>
+        <v>418</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>62</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>238</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
-        <v>210</v>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>212</v>
+        <v>59</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>211</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>213</v>
+        <v>60</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="13" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="13" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>440</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14" xr:uid="{004AA3A4-7FAA-4F73-9E2B-5A117996E31A}">
+      <formula1>$H$1:$H$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24" xr:uid="{F6453884-EF10-41F5-BFF2-060956FE7F7D}">
+      <formula1>$F$1:$F$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26 B30" xr:uid="{B424BAEC-A9CD-4FEF-A88B-733DEACAB5DB}">
+      <formula1>$E$1:$E$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27" xr:uid="{B52AE74B-04A3-4B66-A967-7ECE34E3CA83}">
+      <formula1>$I$1:$I$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23" xr:uid="{03F9D849-3AEF-48B1-A2AF-FD9E9FADCBE9}">
+      <formula1>$K$1:$K$2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{004AA3A4-7FAA-4F73-9E2B-5A117996E31A}">
-          <x14:formula1>
-            <xm:f>UserGuide!$J$1:$J$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>B14</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F6453884-EF10-41F5-BFF2-060956FE7F7D}">
-          <x14:formula1>
-            <xm:f>UserGuide!$H$1:$H$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B17</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B424BAEC-A9CD-4FEF-A88B-733DEACAB5DB}">
-          <x14:formula1>
-            <xm:f>UserGuide!$G$1:$G$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>B19 B23</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B52AE74B-04A3-4B66-A967-7ECE34E3CA83}">
-          <x14:formula1>
-            <xm:f>UserGuide!$K$1:$K$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B20</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2B4EE7-00DF-4361-A3E5-A3C0D0AF86FA}">
   <dimension ref="A1:K16"/>
   <sheetViews>
@@ -5936,19 +6658,19 @@
         <v>41</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>166</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>42</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -5956,7 +6678,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>9</v>
@@ -5968,20 +6690,20 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="10" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" ht="75.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>9</v>
@@ -5992,21 +6714,21 @@
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>9</v>
@@ -6016,22 +6738,22 @@
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>9</v>
@@ -6041,22 +6763,22 @@
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>9</v>
@@ -6067,21 +6789,21 @@
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>9</v>
@@ -6091,22 +6813,22 @@
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>9</v>
@@ -6116,22 +6838,22 @@
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>9</v>
@@ -6140,23 +6862,23 @@
         <v>10</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>9</v>
@@ -6165,23 +6887,23 @@
         <v>10</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>9</v>
@@ -6190,23 +6912,23 @@
         <v>10</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>9</v>
@@ -6215,23 +6937,23 @@
         <v>10</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>9</v>
@@ -6240,23 +6962,23 @@
         <v>10</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>9</v>
@@ -6265,23 +6987,23 @@
         <v>10</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>9</v>
@@ -6290,23 +7012,23 @@
         <v>15</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="10" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>19</v>
@@ -6315,13 +7037,13 @@
         <v>13</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="10" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -6332,12 +7054,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView topLeftCell="C40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="42.90625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6348,11 +7070,11 @@
     <col min="6" max="6" width="42.90625" style="1"/>
     <col min="7" max="7" width="16.90625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="42.90625" style="1"/>
+    <col min="9" max="10" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="42.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -6380,10 +7102,13 @@
       <c r="I1" s="33" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="33" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="B2" s="49" t="s">
         <v>8</v>
@@ -6395,7 +7120,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="F2" s="49" t="s">
         <v>8</v>
@@ -6409,13 +7134,14 @@
       <c r="I2" s="50" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="C3" s="49" t="s">
         <v>9</v>
@@ -6424,7 +7150,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="F3" s="49" t="s">
         <v>8</v>
@@ -6438,13 +7164,14 @@
       <c r="I3" s="50" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="50"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="C4" s="49" t="s">
         <v>9</v>
@@ -6453,7 +7180,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="F4" s="49" t="s">
         <v>8</v>
@@ -6467,13 +7194,14 @@
       <c r="I4" s="50" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="C5" s="51" t="s">
         <v>9</v>
@@ -6482,10 +7210,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="G5" s="51" t="s">
         <v>10</v>
@@ -6496,13 +7224,14 @@
       <c r="I5" s="52" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="52"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="51" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="C6" s="51" t="s">
         <v>9</v>
@@ -6511,10 +7240,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="G6" s="51" t="s">
         <v>10</v>
@@ -6525,13 +7254,14 @@
       <c r="I6" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="52"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>9</v>
@@ -6540,10 +7270,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="G7" s="51" t="s">
         <v>10</v>
@@ -6554,13 +7284,14 @@
       <c r="I7" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="52"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="53" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="C8" s="53" t="s">
         <v>9</v>
@@ -6569,10 +7300,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="G8" s="53" t="s">
         <v>10</v>
@@ -6583,25 +7314,26 @@
       <c r="I8" s="54" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="54"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="53" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="C9" s="53" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="G9" s="53" t="s">
         <v>10</v>
@@ -6612,13 +7344,14 @@
       <c r="I9" s="54" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="54"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="55" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="C10" s="55" t="s">
         <v>9</v>
@@ -6627,10 +7360,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>10</v>
@@ -6641,25 +7374,26 @@
       <c r="I10" s="56" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="56"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="55" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="C11" s="55" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>10</v>
@@ -6670,13 +7404,14 @@
       <c r="I11" s="56" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="56"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="57" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>9</v>
@@ -6685,10 +7420,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="G12" s="57" t="s">
         <v>10</v>
@@ -6699,13 +7434,14 @@
       <c r="I12" s="58" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="58"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="57" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="C13" s="57" t="s">
         <v>9</v>
@@ -6714,10 +7450,10 @@
         <v>10</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="G13" s="57" t="s">
         <v>10</v>
@@ -6728,13 +7464,14 @@
       <c r="I13" s="58" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="58"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="57" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="C14" s="57" t="s">
         <v>9</v>
@@ -6743,10 +7480,10 @@
         <v>10</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="G14" s="57" t="s">
         <v>10</v>
@@ -6757,13 +7494,14 @@
       <c r="I14" s="58" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="58"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="59" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="C15" s="59" t="s">
         <v>9</v>
@@ -6772,10 +7510,10 @@
         <v>10</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="F15" s="59" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="G15" s="59" t="s">
         <v>10</v>
@@ -6786,13 +7524,14 @@
       <c r="I15" s="60" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="60"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="59" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="C16" s="59" t="s">
         <v>9</v>
@@ -6801,10 +7540,10 @@
         <v>13</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="G16" s="59" t="s">
         <v>10</v>
@@ -6815,13 +7554,14 @@
       <c r="I16" s="60" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="60"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C17" s="59" t="s">
         <v>9</v>
@@ -6830,10 +7570,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="F17" s="59" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="G17" s="59" t="s">
         <v>10</v>
@@ -6844,13 +7584,14 @@
       <c r="I17" s="60" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="60"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C18" s="59" t="s">
         <v>14</v>
@@ -6859,10 +7600,10 @@
         <v>15</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="F18" s="59" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="G18" s="59" t="s">
         <v>10</v>
@@ -6873,13 +7614,14 @@
       <c r="I18" s="60" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="60"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="59" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="C19" s="59" t="s">
         <v>14</v>
@@ -6888,10 +7630,10 @@
         <v>16</v>
       </c>
       <c r="E19" s="59" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="F19" s="59" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="G19" s="59" t="s">
         <v>10</v>
@@ -6902,13 +7644,14 @@
       <c r="I19" s="60" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="60"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="61" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="C20" s="61" t="s">
         <v>9</v>
@@ -6917,10 +7660,10 @@
         <v>10</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="F20" s="61" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="G20" s="61" t="s">
         <v>10</v>
@@ -6931,13 +7674,14 @@
       <c r="I20" s="62" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="62"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="61" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="C21" s="61" t="s">
         <v>9</v>
@@ -6946,10 +7690,10 @@
         <v>13</v>
       </c>
       <c r="E21" s="61" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="G21" s="61" t="s">
         <v>10</v>
@@ -6960,13 +7704,14 @@
       <c r="I21" s="62" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="62"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="61" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="C22" s="61" t="s">
         <v>9</v>
@@ -6975,10 +7720,10 @@
         <v>13</v>
       </c>
       <c r="E22" s="61" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="F22" s="61" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="G22" s="61" t="s">
         <v>10</v>
@@ -6989,13 +7734,14 @@
       <c r="I22" s="62" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="62"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="61" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C23" s="61" t="s">
         <v>14</v>
@@ -7004,10 +7750,10 @@
         <v>15</v>
       </c>
       <c r="E23" s="61" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="F23" s="61" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="G23" s="61" t="s">
         <v>10</v>
@@ -7018,13 +7764,14 @@
       <c r="I23" s="62" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="62"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="61" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="C24" s="61" t="s">
         <v>14</v>
@@ -7033,10 +7780,10 @@
         <v>16</v>
       </c>
       <c r="E24" s="61" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="F24" s="61" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="G24" s="61" t="s">
         <v>10</v>
@@ -7047,25 +7794,26 @@
       <c r="I24" s="62" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="62"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="63" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="B25" s="64" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="C25" s="64" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="E25" s="63" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="F25" s="63" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="G25" s="64" t="s">
         <v>10</v>
@@ -7076,25 +7824,26 @@
       <c r="I25" s="65" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="65"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="64" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="B26" s="64" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="C26" s="64" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="E26" s="63" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="F26" s="63" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="G26" s="64" t="s">
         <v>10</v>
@@ -7105,13 +7854,14 @@
       <c r="I26" s="65" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="65"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="64" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="C27" s="64" t="s">
         <v>9</v>
@@ -7120,10 +7870,10 @@
         <v>15</v>
       </c>
       <c r="E27" s="63" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="F27" s="63" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="G27" s="64" t="s">
         <v>10</v>
@@ -7134,13 +7884,14 @@
       <c r="I27" s="65" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="65"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="64" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="C28" s="64" t="s">
         <v>9</v>
@@ -7149,10 +7900,10 @@
         <v>17</v>
       </c>
       <c r="E28" s="63" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="F28" s="63" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="G28" s="64" t="s">
         <v>10</v>
@@ -7163,13 +7914,14 @@
       <c r="I28" s="65" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="65"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="64" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="C29" s="64" t="s">
         <v>9</v>
@@ -7178,10 +7930,10 @@
         <v>15</v>
       </c>
       <c r="E29" s="63" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="F29" s="63" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="G29" s="64" t="s">
         <v>10</v>
@@ -7192,25 +7944,26 @@
       <c r="I29" s="65" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="65"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="64" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="C30" s="64" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="64" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E30" s="63" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="F30" s="63" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="G30" s="64" t="s">
         <v>10</v>
@@ -7221,25 +7974,26 @@
       <c r="I30" s="65" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="65"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="64" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="C31" s="64" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="64" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E31" s="63" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="F31" s="63" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="G31" s="64" t="s">
         <v>10</v>
@@ -7250,25 +8004,26 @@
       <c r="I31" s="65" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="65"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="64" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="C32" s="64" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="E32" s="63" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="F32" s="63" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="G32" s="64" t="s">
         <v>10</v>
@@ -7279,25 +8034,26 @@
       <c r="I32" s="65" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="65"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="64" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="B33" s="64" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="E33" s="63" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="F33" s="63" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="G33" s="64" t="s">
         <v>10</v>
@@ -7308,25 +8064,26 @@
       <c r="I33" s="65" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="65"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="64" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C34" s="64" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="64" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E34" s="63" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="F34" s="63" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="G34" s="64" t="s">
         <v>10</v>
@@ -7337,25 +8094,26 @@
       <c r="I34" s="65" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="65"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="64" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="B35" s="64" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="C35" s="64" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="64" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E35" s="63" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="F35" s="63" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="G35" s="64" t="s">
         <v>10</v>
@@ -7366,25 +8124,26 @@
       <c r="I35" s="65" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="65"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="64" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="B36" s="64" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="C36" s="64" t="s">
         <v>19</v>
       </c>
       <c r="D36" s="64" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E36" s="63" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="F36" s="63" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="G36" s="64" t="s">
         <v>10</v>
@@ -7395,25 +8154,26 @@
       <c r="I36" s="65" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="65"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="64" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="B37" s="64" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C37" s="64" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E37" s="63" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="F37" s="63" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="G37" s="64" t="s">
         <v>10</v>
@@ -7424,13 +8184,14 @@
       <c r="I37" s="65" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="65"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="66" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="B38" s="66" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="C38" s="66" t="s">
         <v>9</v>
@@ -7439,10 +8200,10 @@
         <v>13</v>
       </c>
       <c r="E38" s="66" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="F38" s="67" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="G38" s="66" t="s">
         <v>10</v>
@@ -7453,13 +8214,14 @@
       <c r="I38" s="68" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="68"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="66" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="B39" s="66" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="C39" s="66" t="s">
         <v>9</v>
@@ -7468,10 +8230,10 @@
         <v>13</v>
       </c>
       <c r="E39" s="66" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="F39" s="67" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="G39" s="66" t="s">
         <v>10</v>
@@ -7482,13 +8244,14 @@
       <c r="I39" s="68" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="68"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="66" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="B40" s="66" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="C40" s="66" t="s">
         <v>19</v>
@@ -7497,10 +8260,10 @@
         <v>13</v>
       </c>
       <c r="E40" s="66" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="F40" s="67" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="G40" s="66" t="s">
         <v>10</v>
@@ -7511,25 +8274,26 @@
       <c r="I40" s="68" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="68"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="66" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="B41" s="66" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="D41" s="66" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="66" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="F41" s="67" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="G41" s="66" t="s">
         <v>10</v>
@@ -7540,13 +8304,14 @@
       <c r="I41" s="68" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="68"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="66" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B42" s="66" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="C42" s="66" t="s">
         <v>20</v>
@@ -7555,10 +8320,10 @@
         <v>13</v>
       </c>
       <c r="E42" s="66" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="F42" s="67" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="G42" s="66" t="s">
         <v>10</v>
@@ -7569,25 +8334,26 @@
       <c r="I42" s="68" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="68"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="66" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="B43" s="66" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="C43" s="66" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="D43" s="66" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="66" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="F43" s="67" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="G43" s="66" t="s">
         <v>10</v>
@@ -7598,13 +8364,14 @@
       <c r="I43" s="68" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="68"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="66" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="B44" s="66" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="C44" s="66" t="s">
         <v>9</v>
@@ -7613,10 +8380,10 @@
         <v>15</v>
       </c>
       <c r="E44" s="66" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="F44" s="67" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="G44" s="66" t="s">
         <v>10</v>
@@ -7627,25 +8394,26 @@
       <c r="I44" s="68" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="68"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="66" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="B45" s="66" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="C45" s="66" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="66" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E45" s="66" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="F45" s="67" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="G45" s="66" t="s">
         <v>10</v>
@@ -7656,25 +8424,26 @@
       <c r="I45" s="68" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="68"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="66" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B46" s="66" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="C46" s="66" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="66" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E46" s="66" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="F46" s="67" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="G46" s="66" t="s">
         <v>10</v>
@@ -7685,25 +8454,26 @@
       <c r="I46" s="68" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="68"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="66" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="B47" s="66" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="C47" s="66" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="66" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E47" s="66" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="F47" s="67" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="G47" s="66" t="s">
         <v>10</v>
@@ -7714,25 +8484,26 @@
       <c r="I47" s="68" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="68"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="66" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="B48" s="66" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="C48" s="66" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="66" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E48" s="66" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="F48" s="67" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="G48" s="66" t="s">
         <v>10</v>
@@ -7743,25 +8514,26 @@
       <c r="I48" s="68" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="68"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="66" t="s">
+        <v>350</v>
+      </c>
+      <c r="B49" s="66" t="s">
         <v>368</v>
-      </c>
-      <c r="B49" s="66" t="s">
-        <v>386</v>
       </c>
       <c r="C49" s="66" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="66" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="E49" s="66" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="F49" s="67" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="G49" s="66" t="s">
         <v>10</v>
@@ -7772,25 +8544,26 @@
       <c r="I49" s="68" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="68"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="66" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="B50" s="66" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C50" s="66" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="66" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E50" s="66" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="F50" s="67" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="G50" s="66" t="s">
         <v>10</v>
@@ -7801,13 +8574,14 @@
       <c r="I50" s="68" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="68"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="69" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="B51" s="69" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C51" s="69" t="s">
         <v>9</v>
@@ -7816,10 +8590,10 @@
         <v>13</v>
       </c>
       <c r="E51" s="69" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F51" s="70" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="G51" s="69" t="s">
         <v>10</v>
@@ -7830,25 +8604,26 @@
       <c r="I51" s="71" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="71"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="69" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="B52" s="69" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="C52" s="69" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="D52" s="69" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="69" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F52" s="70" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="G52" s="69" t="s">
         <v>10</v>
@@ -7859,25 +8634,26 @@
       <c r="I52" s="71" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="71"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="69" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="B53" s="69" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="C53" s="69" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="D53" s="69" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="69" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F53" s="70" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="G53" s="69" t="s">
         <v>10</v>
@@ -7888,13 +8664,14 @@
       <c r="I53" s="71" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="71"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="69" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="B54" s="69" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="C54" s="69" t="s">
         <v>19</v>
@@ -7903,10 +8680,10 @@
         <v>13</v>
       </c>
       <c r="E54" s="69" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F54" s="70" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="G54" s="69" t="s">
         <v>10</v>
@@ -7917,13 +8694,14 @@
       <c r="I54" s="71" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="71"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="69" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B55" s="69" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="C55" s="69" t="s">
         <v>20</v>
@@ -7932,10 +8710,10 @@
         <v>13</v>
       </c>
       <c r="E55" s="69" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F55" s="70" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="G55" s="69" t="s">
         <v>10</v>
@@ -7946,13 +8724,14 @@
       <c r="I55" s="71" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="71"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="69" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="B56" s="69" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="C56" s="69" t="s">
         <v>21</v>
@@ -7961,10 +8740,10 @@
         <v>13</v>
       </c>
       <c r="E56" s="69" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F56" s="70" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="G56" s="69" t="s">
         <v>10</v>
@@ -7975,13 +8754,14 @@
       <c r="I56" s="71" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="71"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="69" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="B57" s="69" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="C57" s="69" t="s">
         <v>9</v>
@@ -7990,10 +8770,10 @@
         <v>13</v>
       </c>
       <c r="E57" s="69" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F57" s="70" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="G57" s="69" t="s">
         <v>10</v>
@@ -8004,13 +8784,14 @@
       <c r="I57" s="71" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="71"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="69" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="B58" s="69" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="C58" s="69" t="s">
         <v>9</v>
@@ -8019,10 +8800,10 @@
         <v>15</v>
       </c>
       <c r="E58" s="69" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F58" s="70" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="G58" s="69" t="s">
         <v>10</v>
@@ -8033,13 +8814,14 @@
       <c r="I58" s="71" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="71"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="69" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="B59" s="69" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="C59" s="69" t="s">
         <v>19</v>
@@ -8048,10 +8830,10 @@
         <v>13</v>
       </c>
       <c r="E59" s="69" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F59" s="70" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="G59" s="69" t="s">
         <v>10</v>
@@ -8062,25 +8844,26 @@
       <c r="I59" s="71" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="71"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="69" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="B60" s="69" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="C60" s="69" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="69" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E60" s="69" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F60" s="70" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="G60" s="69" t="s">
         <v>10</v>
@@ -8091,25 +8874,26 @@
       <c r="I60" s="71" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="71"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="69" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="B61" s="69" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="C61" s="69" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="69" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="E61" s="69" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F61" s="70" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="G61" s="69" t="s">
         <v>10</v>
@@ -8120,25 +8904,26 @@
       <c r="I61" s="71" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="71"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="69" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="B62" s="69" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="C62" s="69" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="69" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="E62" s="69" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F62" s="70" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="G62" s="69" t="s">
         <v>10</v>
@@ -8149,25 +8934,26 @@
       <c r="I62" s="71" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="71"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="69" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="B63" s="69" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="C63" s="69" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="69" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E63" s="69" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F63" s="70" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="G63" s="69" t="s">
         <v>10</v>
@@ -8178,25 +8964,26 @@
       <c r="I63" s="71" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="71"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="69" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B64" s="69" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="C64" s="69" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="69" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E64" s="69" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F64" s="70" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="G64" s="69" t="s">
         <v>10</v>
@@ -8207,25 +8994,26 @@
       <c r="I64" s="71" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="71"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="69" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="B65" s="69" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="C65" s="69" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="69" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E65" s="69" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F65" s="70" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="G65" s="69" t="s">
         <v>10</v>
@@ -8236,25 +9024,26 @@
       <c r="I65" s="71" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="71"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="69" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="B66" s="69" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="C66" s="69" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="69" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="E66" s="69" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F66" s="70" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="G66" s="69" t="s">
         <v>10</v>
@@ -8265,25 +9054,26 @@
       <c r="I66" s="71" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="71"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="69" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="B67" s="69" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="C67" s="69" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="69" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="E67" s="69" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F67" s="70" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="G67" s="69" t="s">
         <v>10</v>
@@ -8294,25 +9084,26 @@
       <c r="I67" s="71" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="71"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="72" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="B68" s="72" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="C68" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="72" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="E68" s="72" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F68" s="70" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="G68" s="69" t="s">
         <v>10</v>
@@ -8323,25 +9114,26 @@
       <c r="I68" s="73" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="73"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="63" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="B69" s="64" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="C69" s="64" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="64" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="E69" s="63" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="F69" s="63" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="G69" s="64" t="s">
         <v>10</v>
@@ -8352,25 +9144,26 @@
       <c r="I69" s="65" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="65"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="64" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="B70" s="64" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="C70" s="64" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="64" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="E70" s="63" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="F70" s="63" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="G70" s="64" t="s">
         <v>10</v>
@@ -8381,13 +9174,14 @@
       <c r="I70" s="65" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="65"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="64" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="B71" s="64" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="C71" s="64" t="s">
         <v>9</v>
@@ -8396,10 +9190,10 @@
         <v>15</v>
       </c>
       <c r="E71" s="63" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="F71" s="63" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="G71" s="64" t="s">
         <v>10</v>
@@ -8410,13 +9204,14 @@
       <c r="I71" s="65" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="65"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="64" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="B72" s="64" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="C72" s="64" t="s">
         <v>9</v>
@@ -8425,10 +9220,10 @@
         <v>17</v>
       </c>
       <c r="E72" s="63" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="F72" s="63" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="G72" s="64" t="s">
         <v>10</v>
@@ -8439,13 +9234,14 @@
       <c r="I72" s="65" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="65"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="64" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="B73" s="64" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="C73" s="64" t="s">
         <v>9</v>
@@ -8454,10 +9250,10 @@
         <v>15</v>
       </c>
       <c r="E73" s="63" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="F73" s="63" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="G73" s="64" t="s">
         <v>10</v>
@@ -8468,25 +9264,26 @@
       <c r="I73" s="65" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="65"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="64" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="B74" s="64" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="C74" s="64" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="64" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E74" s="63" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="F74" s="63" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="G74" s="64" t="s">
         <v>10</v>
@@ -8497,25 +9294,26 @@
       <c r="I74" s="65" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="65"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="64" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B75" s="64" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="C75" s="64" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="64" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E75" s="63" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="F75" s="63" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="G75" s="64" t="s">
         <v>10</v>
@@ -8526,25 +9324,26 @@
       <c r="I75" s="65" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="65"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="64" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B76" s="64" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="C76" s="64" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="64" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="E76" s="63" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="F76" s="63" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="G76" s="64" t="s">
         <v>10</v>
@@ -8555,25 +9354,26 @@
       <c r="I76" s="65" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="65"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="64" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="B77" s="64" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="C77" s="64" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="D77" s="64" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="E77" s="63" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="F77" s="63" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="G77" s="64" t="s">
         <v>10</v>
@@ -8584,25 +9384,26 @@
       <c r="I77" s="65" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="65"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="64" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="B78" s="64" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C78" s="64" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="64" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E78" s="63" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="F78" s="63" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="G78" s="64" t="s">
         <v>10</v>
@@ -8613,25 +9414,26 @@
       <c r="I78" s="65" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="65"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="64" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="B79" s="64" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="C79" s="64" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="64" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E79" s="63" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="F79" s="63" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="G79" s="64" t="s">
         <v>10</v>
@@ -8642,25 +9444,26 @@
       <c r="I79" s="65" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="65"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="64" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="B80" s="64" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="C80" s="64" t="s">
         <v>19</v>
       </c>
       <c r="D80" s="64" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E80" s="63" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="F80" s="63" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="G80" s="64" t="s">
         <v>10</v>
@@ -8671,25 +9474,26 @@
       <c r="I80" s="65" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="65"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="64" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="B81" s="64" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C81" s="64" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="64" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E81" s="63" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="F81" s="63" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="G81" s="64" t="s">
         <v>10</v>
@@ -8700,13 +9504,14 @@
       <c r="I81" s="65" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="65"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="66" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="B82" s="66" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="C82" s="66" t="s">
         <v>9</v>
@@ -8715,10 +9520,10 @@
         <v>13</v>
       </c>
       <c r="E82" s="66" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="F82" s="67" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="G82" s="66" t="s">
         <v>10</v>
@@ -8729,13 +9534,14 @@
       <c r="I82" s="68" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="68"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="66" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="B83" s="66" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="C83" s="66" t="s">
         <v>9</v>
@@ -8744,10 +9550,10 @@
         <v>13</v>
       </c>
       <c r="E83" s="66" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="F83" s="67" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="G83" s="66" t="s">
         <v>10</v>
@@ -8758,13 +9564,14 @@
       <c r="I83" s="68" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="68"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="66" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="B84" s="66" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="C84" s="66" t="s">
         <v>19</v>
@@ -8773,10 +9580,10 @@
         <v>13</v>
       </c>
       <c r="E84" s="66" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="F84" s="67" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="G84" s="66" t="s">
         <v>10</v>
@@ -8787,25 +9594,26 @@
       <c r="I84" s="68" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="68"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="66" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="B85" s="66" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="C85" s="66" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="D85" s="66" t="s">
         <v>13</v>
       </c>
       <c r="E85" s="66" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="F85" s="67" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="G85" s="66" t="s">
         <v>10</v>
@@ -8816,13 +9624,14 @@
       <c r="I85" s="68" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="68"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="66" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B86" s="66" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="C86" s="66" t="s">
         <v>20</v>
@@ -8831,10 +9640,10 @@
         <v>13</v>
       </c>
       <c r="E86" s="66" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="F86" s="67" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="G86" s="66" t="s">
         <v>10</v>
@@ -8845,25 +9654,26 @@
       <c r="I86" s="68" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="68"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="66" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="B87" s="66" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="C87" s="66" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="D87" s="66" t="s">
         <v>15</v>
       </c>
       <c r="E87" s="66" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="F87" s="67" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="G87" s="66" t="s">
         <v>10</v>
@@ -8874,13 +9684,14 @@
       <c r="I87" s="68" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="68"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="66" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="B88" s="66" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="C88" s="66" t="s">
         <v>9</v>
@@ -8889,10 +9700,10 @@
         <v>15</v>
       </c>
       <c r="E88" s="66" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="F88" s="67" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="G88" s="66" t="s">
         <v>10</v>
@@ -8903,25 +9714,26 @@
       <c r="I88" s="68" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="68"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="66" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="B89" s="66" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="C89" s="66" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="66" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E89" s="66" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="F89" s="67" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="G89" s="66" t="s">
         <v>10</v>
@@ -8932,25 +9744,26 @@
       <c r="I89" s="68" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="68"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="66" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B90" s="66" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="C90" s="66" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="66" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E90" s="66" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="F90" s="67" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="G90" s="66" t="s">
         <v>10</v>
@@ -8961,25 +9774,26 @@
       <c r="I90" s="68" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="68"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="66" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="B91" s="66" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="C91" s="66" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="66" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E91" s="66" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="F91" s="67" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="G91" s="66" t="s">
         <v>10</v>
@@ -8990,25 +9804,26 @@
       <c r="I91" s="68" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="68"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="66" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="B92" s="66" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="C92" s="66" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="66" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E92" s="66" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="F92" s="67" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="G92" s="66" t="s">
         <v>10</v>
@@ -9019,25 +9834,26 @@
       <c r="I92" s="68" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="68"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="66" t="s">
+        <v>350</v>
+      </c>
+      <c r="B93" s="66" t="s">
         <v>368</v>
-      </c>
-      <c r="B93" s="66" t="s">
-        <v>386</v>
       </c>
       <c r="C93" s="66" t="s">
         <v>19</v>
       </c>
       <c r="D93" s="66" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="E93" s="66" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="F93" s="67" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="G93" s="66" t="s">
         <v>10</v>
@@ -9048,25 +9864,26 @@
       <c r="I93" s="68" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="68"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="66" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="B94" s="66" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C94" s="66" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="66" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E94" s="66" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="F94" s="67" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="G94" s="66" t="s">
         <v>10</v>
@@ -9077,13 +9894,14 @@
       <c r="I94" s="68" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="68"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="69" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="B95" s="69" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="C95" s="69" t="s">
         <v>9</v>
@@ -9092,10 +9910,10 @@
         <v>13</v>
       </c>
       <c r="E95" s="69" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F95" s="70" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="G95" s="69" t="s">
         <v>10</v>
@@ -9106,25 +9924,26 @@
       <c r="I95" s="71" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="71"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="69" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="B96" s="69" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="C96" s="69" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="D96" s="69" t="s">
         <v>13</v>
       </c>
       <c r="E96" s="69" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F96" s="70" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="G96" s="69" t="s">
         <v>10</v>
@@ -9135,25 +9954,26 @@
       <c r="I96" s="71" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="71"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="69" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="B97" s="69" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="C97" s="69" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="D97" s="69" t="s">
         <v>15</v>
       </c>
       <c r="E97" s="69" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F97" s="70" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="G97" s="69" t="s">
         <v>10</v>
@@ -9164,13 +9984,14 @@
       <c r="I97" s="71" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="71"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="69" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="B98" s="69" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="C98" s="69" t="s">
         <v>19</v>
@@ -9179,10 +10000,10 @@
         <v>13</v>
       </c>
       <c r="E98" s="69" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F98" s="70" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="G98" s="69" t="s">
         <v>10</v>
@@ -9193,13 +10014,14 @@
       <c r="I98" s="71" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="71"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="69" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B99" s="69" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="C99" s="69" t="s">
         <v>20</v>
@@ -9208,10 +10030,10 @@
         <v>13</v>
       </c>
       <c r="E99" s="69" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F99" s="70" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="G99" s="69" t="s">
         <v>10</v>
@@ -9222,13 +10044,14 @@
       <c r="I99" s="71" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="71"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="69" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="B100" s="69" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="C100" s="69" t="s">
         <v>21</v>
@@ -9237,10 +10060,10 @@
         <v>13</v>
       </c>
       <c r="E100" s="69" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F100" s="70" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="G100" s="69" t="s">
         <v>10</v>
@@ -9251,13 +10074,14 @@
       <c r="I100" s="71" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="71"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="69" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="B101" s="69" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="C101" s="69" t="s">
         <v>9</v>
@@ -9266,10 +10090,10 @@
         <v>13</v>
       </c>
       <c r="E101" s="69" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F101" s="70" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="G101" s="69" t="s">
         <v>10</v>
@@ -9280,13 +10104,14 @@
       <c r="I101" s="71" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="71"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="69" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="B102" s="69" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="C102" s="69" t="s">
         <v>9</v>
@@ -9295,10 +10120,10 @@
         <v>15</v>
       </c>
       <c r="E102" s="69" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F102" s="70" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="G102" s="69" t="s">
         <v>10</v>
@@ -9309,13 +10134,14 @@
       <c r="I102" s="71" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="71"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="69" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="B103" s="69" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="C103" s="69" t="s">
         <v>19</v>
@@ -9324,10 +10150,10 @@
         <v>13</v>
       </c>
       <c r="E103" s="69" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F103" s="70" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="G103" s="69" t="s">
         <v>10</v>
@@ -9338,25 +10164,26 @@
       <c r="I103" s="71" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="71"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="69" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="B104" s="69" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="C104" s="69" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="69" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E104" s="69" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F104" s="70" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="G104" s="69" t="s">
         <v>10</v>
@@ -9367,25 +10194,26 @@
       <c r="I104" s="71" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="71"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="69" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="B105" s="69" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="C105" s="69" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="69" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="E105" s="69" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F105" s="70" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="G105" s="69" t="s">
         <v>10</v>
@@ -9396,25 +10224,26 @@
       <c r="I105" s="71" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="71"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="69" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="B106" s="69" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="C106" s="69" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="69" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="E106" s="69" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F106" s="70" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="G106" s="69" t="s">
         <v>10</v>
@@ -9425,25 +10254,26 @@
       <c r="I106" s="71" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="71"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="69" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="B107" s="69" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="C107" s="69" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="69" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E107" s="69" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F107" s="70" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="G107" s="69" t="s">
         <v>10</v>
@@ -9454,25 +10284,26 @@
       <c r="I107" s="71" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="71"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="69" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B108" s="69" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="C108" s="69" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="69" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E108" s="69" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F108" s="70" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="G108" s="69" t="s">
         <v>10</v>
@@ -9483,25 +10314,26 @@
       <c r="I108" s="71" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="71"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="69" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="B109" s="69" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="C109" s="69" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="69" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E109" s="69" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F109" s="70" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="G109" s="69" t="s">
         <v>10</v>
@@ -9512,25 +10344,26 @@
       <c r="I109" s="71" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="71"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="69" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="B110" s="69" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="C110" s="69" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="69" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="E110" s="69" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F110" s="70" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="G110" s="69" t="s">
         <v>10</v>
@@ -9541,25 +10374,26 @@
       <c r="I110" s="71" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="71"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="69" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="B111" s="69" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="C111" s="69" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="69" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="E111" s="69" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F111" s="70" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="G111" s="69" t="s">
         <v>10</v>
@@ -9570,25 +10404,26 @@
       <c r="I111" s="71" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="71"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="72" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="B112" s="72" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="C112" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="72" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="E112" s="72" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F112" s="70" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="G112" s="69" t="s">
         <v>10</v>
@@ -9599,6 +10434,7 @@
       <c r="I112" s="73" t="s">
         <v>18</v>
       </c>
+      <c r="J112" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9606,7 +10442,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40A9123-B5A2-440C-9957-36B1335A3358}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>441</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30238DA8-8054-45FA-818C-A43B30EDC8A2}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -9642,13 +10512,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -9659,13 +10529,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
@@ -9680,7 +10550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A1AF62-98F1-49F6-B158-68CB4FD245B6}">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -9699,13 +10569,13 @@
       <c r="A1" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="94" t="s">
-        <v>411</v>
-      </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
+      <c r="B1" s="88" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
     </row>
     <row r="4" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -9767,10 +10637,10 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9933,7 +10803,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB78B655-B297-4C3A-BF3E-9F81A371CA5D}">
           <x14:formula1>
-            <xm:f>UserGuide!$G$1:$G$2</xm:f>
+            <xm:f>GeneralInformation!$E$1:$E$2</xm:f>
           </x14:formula1>
           <xm:sqref>B17:B24</xm:sqref>
         </x14:dataValidation>
@@ -9941,503 +10811,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAF2BD3-5591-4AE6-8093-FE01ED0DECED}">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.26953125" customWidth="1"/>
-    <col min="2" max="2" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.08984375" customWidth="1"/>
-    <col min="4" max="4" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C3" s="34"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CD46A7-14E7-4C5F-99A9-AF867853C532}">
-  <dimension ref="A1:G24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.453125" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.7265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.6328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.453125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.08984375" style="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="24" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="91">
-        <v>8400</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="24" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="91">
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="24" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="89" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="90" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="91">
-        <v>3.8500000000000001E-5</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="24" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="90" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="91">
-        <v>4.75E-4</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="24" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="92" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="91">
-        <v>7.18E-4</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="24" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="89" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="91">
-        <v>4220</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="24" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="90" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="91">
-        <v>40.6</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="24" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="89" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="90" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="91">
-        <v>55.5</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="24" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="89" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="91">
-        <v>177</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="24" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="89" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="90" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="91">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="24" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="89" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="90" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="91">
-        <v>28.3</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="24" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="89" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="90" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="91">
-        <v>11800</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="24" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="90" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" s="91">
-        <v>1400000</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="24" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="89" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="92" t="s">
-        <v>162</v>
-      </c>
-      <c r="D15" s="91">
-        <v>11500</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="24" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="89" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="90" t="s">
-        <v>163</v>
-      </c>
-      <c r="D16" s="91">
-        <v>6.3600000000000004E-2</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="24" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="89" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="90" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="91">
-        <v>65300</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/ExcelTool_GeneratorInput_Template.xlsx
+++ b/ExcelTool_GeneratorInput_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SarahSchmidt\Documents\sourcetree\MoEWe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9ECA83E-6B71-4C8F-BA3F-7746B86534F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64EA69C-AE4F-44BE-9FAA-30408F3CCD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserGuide" sheetId="4" r:id="rId1"/>
@@ -5670,7 +5670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A3D566-44A5-479B-A2A9-A44ABD46E4C9}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -7058,8 +7058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="42.90625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -7070,7 +7070,8 @@
     <col min="6" max="6" width="42.90625" style="1"/>
     <col min="7" max="7" width="16.90625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="42.90625" style="1"/>
   </cols>
   <sheetData>
@@ -7939,7 +7940,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="64">
-        <v>-0.8</v>
+        <v>-0.35</v>
       </c>
       <c r="I29" s="65" t="s">
         <v>12</v>
@@ -8389,7 +8390,7 @@
         <v>10</v>
       </c>
       <c r="H44" s="66">
-        <v>-0.9</v>
+        <v>-0.45</v>
       </c>
       <c r="I44" s="68" t="s">
         <v>12</v>
@@ -9259,7 +9260,7 @@
         <v>10</v>
       </c>
       <c r="H73" s="64">
-        <v>-0.8</v>
+        <v>-0.35</v>
       </c>
       <c r="I73" s="65" t="s">
         <v>12</v>
@@ -9709,7 +9710,7 @@
         <v>10</v>
       </c>
       <c r="H88" s="66">
-        <v>-0.9</v>
+        <v>-0.45</v>
       </c>
       <c r="I88" s="68" t="s">
         <v>12</v>

--- a/ExcelTool_GeneratorInput_Template.xlsx
+++ b/ExcelTool_GeneratorInput_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SarahSchmidt\Documents\sourcetree\MoEWe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64EA69C-AE4F-44BE-9FAA-30408F3CCD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BED4F8-504A-49FA-8EE1-78B26CC08774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserGuide" sheetId="4" r:id="rId1"/>
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="474">
   <si>
     <t>input</t>
   </si>
@@ -2799,6 +2799,45 @@
   </si>
   <si>
     <t>EWU-Component "Environmental value of discarded materials" calculated per weighting method.</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>share of biowaste to home composting</t>
+  </si>
+  <si>
+    <t>industrial biowaste treatment: share to anaerobic digestion</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>industrial biowaste treatment: transport to treatment facilities</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>-P2</t>
+  </si>
+  <si>
+    <t>-1+P2</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>-1+P3</t>
+  </si>
+  <si>
+    <t>-P3</t>
   </si>
 </sst>
 </file>
@@ -3123,7 +3162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -3198,12 +3237,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3410,6 +3473,28 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="12" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="17" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -6315,7 +6400,7 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -7059,7 +7144,7 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="42.90625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -7165,7 +7250,9 @@
       <c r="I3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="50"/>
+      <c r="J3" s="101" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
@@ -7195,7 +7282,9 @@
       <c r="I4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="50"/>
+      <c r="J4" s="101" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
@@ -7555,7 +7644,9 @@
       <c r="I16" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="60"/>
+      <c r="J16" s="102" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
@@ -7585,7 +7676,9 @@
       <c r="I17" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="60"/>
+      <c r="J17" s="102" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
@@ -7645,7 +7738,9 @@
       <c r="I19" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="60"/>
+      <c r="J19" s="60" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="61" t="s">
@@ -7705,7 +7800,9 @@
       <c r="I21" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="62"/>
+      <c r="J21" s="103" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="61" t="s">
@@ -7735,7 +7832,9 @@
       <c r="I22" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="62"/>
+      <c r="J22" s="103" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="61" t="s">
@@ -7795,7 +7894,9 @@
       <c r="I24" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="62"/>
+      <c r="J24" s="62" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="63" t="s">
@@ -10445,31 +10546,87 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40A9123-B5A2-440C-9957-36B1335A3358}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" style="95" customWidth="1"/>
+    <col min="2" max="2" width="34.1796875" style="95" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" style="95" customWidth="1"/>
+    <col min="4" max="4" width="15" style="95" customWidth="1"/>
+    <col min="5" max="16384" width="10.90625" style="95"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>440</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="96" t="s">
         <v>439</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="96" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="33" t="s">
-        <v>441</v>
+      <c r="E1" s="94" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2" s="97" t="s">
+        <v>463</v>
+      </c>
+      <c r="C2" s="100">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="99" t="s">
+        <v>467</v>
+      </c>
+      <c r="E2" s="97" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" s="100">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="99" t="s">
+        <v>467</v>
+      </c>
+      <c r="E3" s="97" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="A4" s="97" t="s">
+        <v>471</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4" s="97">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="97" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
